--- a/REGULAR/MAYORS OFFICE/LANTING, AILEEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/LANTING, AILEEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE0B09F-CCDE-4499-B176-3FCFA01C2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC536D4B-BDB3-4AA2-A9AC-2564AD21E7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="468">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1430,6 +1430,15 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE IV</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -3855,7 +3864,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K773" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K774" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4233,12 +4242,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K773"/>
+  <dimension ref="A2:K774"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4056" topLeftCell="A665" activePane="bottomLeft"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="K667" sqref="K667"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomLeft" activeCell="K671" sqref="K671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4281,7 +4290,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="57" t="s">
+        <v>465</v>
+      </c>
       <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -4299,7 +4310,9 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="57" t="s">
+        <v>466</v>
+      </c>
       <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
@@ -4395,7 +4408,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>115.97200000000004</v>
+        <v>118.47200000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4405,7 +4418,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.75</v>
+        <v>102.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18812,13 +18825,15 @@
       <c r="B665" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="C665" s="13"/>
+      <c r="C665" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D665" s="39"/>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
-      <c r="G665" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G665" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H665" s="39">
         <v>1</v>
@@ -18878,13 +18893,15 @@
         <v>45261</v>
       </c>
       <c r="B668" s="20"/>
-      <c r="C668" s="13"/>
+      <c r="C668" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D668" s="39"/>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G668" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H668" s="39"/>
       <c r="I668" s="9"/>
@@ -18892,8 +18909,8 @@
       <c r="K668" s="20"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A669" s="40">
-        <v>45292</v>
+      <c r="A669" s="48" t="s">
+        <v>467</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18911,9 +18928,11 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B670" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B670" s="20" t="s">
+        <v>434</v>
+      </c>
       <c r="C670" s="13"/>
       <c r="D670" s="39"/>
       <c r="E670" s="9"/>
@@ -18922,14 +18941,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H670" s="39"/>
+      <c r="H670" s="39">
+        <v>1</v>
+      </c>
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
-      <c r="K670" s="20"/>
+      <c r="K670" s="49">
+        <v>45294</v>
+      </c>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18947,7 +18970,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18965,7 +18988,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18983,7 +19006,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19001,7 +19024,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19019,7 +19042,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
-        <v>45505</v>
+        <v>45504</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19037,7 +19060,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19055,7 +19078,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
-        <v>45566</v>
+        <v>45565</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19073,7 +19096,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19091,7 +19114,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19109,7 +19132,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19127,7 +19150,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
-        <v>45689</v>
+        <v>45688</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19145,7 +19168,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
-        <v>45717</v>
+        <v>45716</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19163,7 +19186,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19181,7 +19204,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19199,7 +19222,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
-        <v>45809</v>
+        <v>45808</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19217,7 +19240,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
-        <v>45839</v>
+        <v>45838</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19235,7 +19258,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
-        <v>45870</v>
+        <v>45869</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19253,7 +19276,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19271,7 +19294,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
-        <v>45931</v>
+        <v>45930</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19289,7 +19312,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
-        <v>45962</v>
+        <v>45961</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19307,7 +19330,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19325,7 +19348,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
-        <v>46023</v>
+        <v>46022</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19343,7 +19366,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19361,7 +19384,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
-        <v>46082</v>
+        <v>46081</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19379,7 +19402,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <v>46113</v>
+        <v>46112</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19397,7 +19420,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
-        <v>46143</v>
+        <v>46142</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19415,7 +19438,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
-        <v>46174</v>
+        <v>46173</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19433,7 +19456,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
-        <v>46204</v>
+        <v>46203</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19451,7 +19474,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
-        <v>46235</v>
+        <v>46234</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19469,7 +19492,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
-        <v>46266</v>
+        <v>46265</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19487,7 +19510,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
-        <v>46296</v>
+        <v>46295</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19505,7 +19528,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
-        <v>46327</v>
+        <v>46326</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19523,7 +19546,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
-        <v>46357</v>
+        <v>46356</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19541,7 +19564,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
-        <v>46388</v>
+        <v>46387</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19559,7 +19582,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
-        <v>46419</v>
+        <v>46418</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19577,7 +19600,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
-        <v>46447</v>
+        <v>46446</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19595,7 +19618,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
-        <v>46478</v>
+        <v>46477</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19613,7 +19636,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
-        <v>46508</v>
+        <v>46507</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19631,7 +19654,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
-        <v>46539</v>
+        <v>46538</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19649,7 +19672,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
-        <v>46569</v>
+        <v>46568</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19667,7 +19690,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
-        <v>46600</v>
+        <v>46599</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19685,7 +19708,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
-        <v>46631</v>
+        <v>46630</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19703,7 +19726,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
-        <v>46661</v>
+        <v>46660</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19721,7 +19744,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
-        <v>46692</v>
+        <v>46691</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19739,7 +19762,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
-        <v>46722</v>
+        <v>46721</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19757,7 +19780,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
-        <v>46753</v>
+        <v>46752</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19775,7 +19798,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
-        <v>46784</v>
+        <v>46783</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19793,7 +19816,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
-        <v>46813</v>
+        <v>46812</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19811,7 +19834,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
-        <v>46844</v>
+        <v>46843</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19829,7 +19852,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
-        <v>46874</v>
+        <v>46873</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19847,7 +19870,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
-        <v>46905</v>
+        <v>46904</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19865,7 +19888,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
-        <v>46935</v>
+        <v>46934</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19883,7 +19906,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
-        <v>46966</v>
+        <v>46965</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19901,7 +19924,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
-        <v>46997</v>
+        <v>46996</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19919,7 +19942,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
-        <v>47027</v>
+        <v>47026</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19937,7 +19960,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
-        <v>47058</v>
+        <v>47057</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19955,7 +19978,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
-        <v>47088</v>
+        <v>47087</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19973,7 +19996,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
-        <v>47119</v>
+        <v>47118</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19991,7 +20014,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
-        <v>47150</v>
+        <v>47149</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -20009,7 +20032,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
-        <v>47178</v>
+        <v>47177</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -20027,7 +20050,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
-        <v>47209</v>
+        <v>47208</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20045,7 +20068,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
-        <v>47239</v>
+        <v>47238</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20063,7 +20086,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
-        <v>47270</v>
+        <v>47269</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20081,7 +20104,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40">
-        <v>47300</v>
+        <v>47299</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -20099,7 +20122,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40">
-        <v>47331</v>
+        <v>47330</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -20117,7 +20140,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40">
-        <v>47362</v>
+        <v>47361</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -20135,7 +20158,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40">
-        <v>47392</v>
+        <v>47391</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -20153,7 +20176,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40">
-        <v>47423</v>
+        <v>47422</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -20171,7 +20194,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40">
-        <v>47453</v>
+        <v>47452</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -20189,7 +20212,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40">
-        <v>47484</v>
+        <v>47483</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -20207,7 +20230,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40">
-        <v>47515</v>
+        <v>47514</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -20225,7 +20248,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40">
-        <v>47543</v>
+        <v>47542</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -20243,7 +20266,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40">
-        <v>47574</v>
+        <v>47573</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -20261,7 +20284,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40">
-        <v>47604</v>
+        <v>47603</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -20279,7 +20302,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40">
-        <v>47635</v>
+        <v>47634</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -20297,7 +20320,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40">
-        <v>47665</v>
+        <v>47664</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -20315,7 +20338,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40">
-        <v>47696</v>
+        <v>47695</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -20333,7 +20356,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40">
-        <v>47727</v>
+        <v>47726</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -20351,7 +20374,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40">
-        <v>47757</v>
+        <v>47756</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -20369,7 +20392,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40">
-        <v>47788</v>
+        <v>47787</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -20387,7 +20410,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40">
-        <v>47818</v>
+        <v>47817</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -20405,7 +20428,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40">
-        <v>47849</v>
+        <v>47848</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -20423,7 +20446,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40">
-        <v>47880</v>
+        <v>47879</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -20441,7 +20464,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40">
-        <v>47908</v>
+        <v>47907</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -20459,7 +20482,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40">
-        <v>47939</v>
+        <v>47938</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -20477,7 +20500,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40">
-        <v>47969</v>
+        <v>47968</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -20495,7 +20518,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40">
-        <v>48000</v>
+        <v>47999</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -20513,7 +20536,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40">
-        <v>48030</v>
+        <v>48029</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -20531,7 +20554,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40">
-        <v>48061</v>
+        <v>48060</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -20549,7 +20572,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40">
-        <v>48092</v>
+        <v>48091</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -20567,7 +20590,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40">
-        <v>48122</v>
+        <v>48121</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -20585,7 +20608,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40">
-        <v>48153</v>
+        <v>48152</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -20603,7 +20626,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40">
-        <v>48183</v>
+        <v>48182</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -20621,7 +20644,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40">
-        <v>48214</v>
+        <v>48213</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -20639,7 +20662,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40">
-        <v>48245</v>
+        <v>48244</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -20657,7 +20680,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40">
-        <v>48274</v>
+        <v>48273</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -20675,7 +20698,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40">
-        <v>48305</v>
+        <v>48304</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -20693,7 +20716,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40">
-        <v>48335</v>
+        <v>48334</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -20711,7 +20734,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40">
-        <v>48366</v>
+        <v>48365</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -20729,7 +20752,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40">
-        <v>48396</v>
+        <v>48395</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -20747,7 +20770,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40">
-        <v>48427</v>
+        <v>48426</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -20765,7 +20788,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40">
-        <v>48458</v>
+        <v>48457</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -20780,6 +20803,24 @@
       <c r="I773" s="9"/>
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
+    </row>
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A774" s="40">
+        <v>48487</v>
+      </c>
+      <c r="B774" s="20"/>
+      <c r="C774" s="13"/>
+      <c r="D774" s="39"/>
+      <c r="E774" s="9"/>
+      <c r="F774" s="20"/>
+      <c r="G774" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H774" s="39"/>
+      <c r="I774" s="9"/>
+      <c r="J774" s="11"/>
+      <c r="K774" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20795,7 +20836,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>

--- a/REGULAR/MAYORS OFFICE/LANTING, AILEEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/LANTING, AILEEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC536D4B-BDB3-4AA2-A9AC-2564AD21E7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="469">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1439,12 +1438,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>01/29,30/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2329,7 +2331,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2374,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2438,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2498,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2564,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2627,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2725,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2782,7 +2784,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2849,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2892,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2967,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3153,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3219,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3275,7 +3277,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3343,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3399,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3474,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3515,7 +3517,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3583,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,7 +3639,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,7 +3737,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3798,7 +3800,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3847,7 +3849,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3864,25 +3866,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K774" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K775" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3894,13 +3896,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3909,14 +3911,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4220,7 +4222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4230,7 +4232,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4238,34 +4240,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K774"/>
+  <dimension ref="A2:K775"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A665" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A665" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K671" sqref="K671"/>
+      <selection pane="bottomLeft" activeCell="F678" sqref="F678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4286,7 +4288,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4306,7 +4308,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4326,7 +4328,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4334,7 +4336,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4347,7 +4349,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4364,7 +4366,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4399,7 +4401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4408,7 +4410,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>118.47200000000004</v>
+        <v>119.72200000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4418,12 +4420,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>102.25</v>
+        <v>101.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4445,7 +4447,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36069</v>
       </c>
@@ -4465,7 +4467,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36100</v>
@@ -4486,7 +4488,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>36130</v>
@@ -4507,7 +4509,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4525,7 +4527,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35431</v>
       </c>
@@ -4545,7 +4547,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>35462</v>
@@ -4566,7 +4568,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A22" si="0">EDATE(A16,1)</f>
         <v>35490</v>
@@ -4591,7 +4593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -4609,7 +4611,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <f>EDATE(A17,1)</f>
         <v>35521</v>
@@ -4630,7 +4632,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4651,7 +4653,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4672,7 +4674,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4697,7 +4699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
@@ -4715,7 +4717,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <f>EDATE(A22,1)</f>
         <v>35643</v>
@@ -4740,7 +4742,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -4758,7 +4760,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <f>EDATE(A24,1)</f>
         <v>35674</v>
@@ -4783,7 +4785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>51</v>
@@ -4805,7 +4807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -4823,7 +4825,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <f>EDATE(A26,1)</f>
         <v>35704</v>
@@ -4846,7 +4848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -4868,7 +4870,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -4886,7 +4888,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <f>EDATE(A29,1)</f>
         <v>35735</v>
@@ -4909,7 +4911,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -4931,7 +4933,7 @@
         <v>35622</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4949,7 +4951,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <f>EDATE(A32,1)</f>
         <v>35765</v>
@@ -4974,7 +4976,7 @@
         <v>35654</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>58</v>
@@ -4996,7 +4998,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>59</v>
       </c>
@@ -5014,7 +5016,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35796</v>
       </c>
@@ -5038,7 +5040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>61</v>
@@ -5060,7 +5062,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>35827</v>
@@ -5085,7 +5087,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>65</v>
@@ -5107,7 +5109,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35855</v>
@@ -5132,7 +5134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>57</v>
@@ -5154,7 +5156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -5172,7 +5174,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>35886</v>
@@ -5197,7 +5199,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>57</v>
@@ -5219,7 +5221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -5241,7 +5243,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A45,1)</f>
         <v>35916</v>
@@ -5266,7 +5268,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" ref="A49:A59" si="1">EDATE(A48,1)</f>
         <v>35947</v>
@@ -5287,7 +5289,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5314,7 +5316,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>74</v>
@@ -5334,7 +5336,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A50,1)</f>
         <v>36008</v>
@@ -5359,7 +5361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>76</v>
@@ -5381,7 +5383,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36039</v>
@@ -5402,7 +5404,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -5427,7 +5429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>53</v>
@@ -5447,7 +5449,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>79</v>
@@ -5469,7 +5471,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A55,1)</f>
         <v>36100</v>
@@ -5494,7 +5496,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -5519,7 +5521,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>83</v>
@@ -5541,7 +5543,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>84</v>
       </c>
@@ -5559,7 +5561,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36161</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>36373</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>85</v>
@@ -5605,7 +5607,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36192</v>
@@ -5630,7 +5632,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A84" si="2">EDATE(A64,1)</f>
         <v>36220</v>
@@ -5655,7 +5657,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -5680,7 +5682,7 @@
         <v>36498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>88</v>
@@ -5702,7 +5704,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36281</v>
@@ -5727,7 +5729,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>90</v>
@@ -5749,7 +5751,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>36312</v>
@@ -5774,7 +5776,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>57</v>
@@ -5796,7 +5798,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -5816,7 +5818,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>61</v>
@@ -5838,7 +5840,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A70,1)</f>
         <v>36342</v>
@@ -5863,7 +5865,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -5888,7 +5890,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>95</v>
@@ -5910,7 +5912,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36404</v>
@@ -5935,7 +5937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>97</v>
@@ -5957,7 +5959,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f>EDATE(A77,1)</f>
         <v>36434</v>
@@ -5982,7 +5984,7 @@
         <v>36260</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>53</v>
@@ -6002,7 +6004,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>48</v>
@@ -6024,7 +6026,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -6042,7 +6044,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A79,1)</f>
         <v>36465</v>
@@ -6067,7 +6069,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -6092,7 +6094,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>77</v>
@@ -6114,7 +6116,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>103</v>
@@ -6136,7 +6138,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>104</v>
       </c>
@@ -6154,7 +6156,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36526</v>
       </c>
@@ -6178,7 +6180,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>36557</v>
@@ -6203,7 +6205,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A103" si="3">EDATE(A89,1)</f>
         <v>36586</v>
@@ -6228,7 +6230,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>107</v>
@@ -6250,7 +6252,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>36617</v>
@@ -6275,7 +6277,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>107</v>
@@ -6297,7 +6299,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36647</v>
@@ -6322,7 +6324,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -6347,7 +6349,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -6372,7 +6374,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -6393,7 +6395,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f>EDATE(A97,1)</f>
         <v>36770</v>
@@ -6416,7 +6418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -6434,7 +6436,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>36800</v>
@@ -6457,7 +6459,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -6475,7 +6477,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>36831</v>
@@ -6496,7 +6498,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -6521,7 +6523,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>115</v>
@@ -6543,7 +6545,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>51</v>
@@ -6565,7 +6567,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -6583,7 +6585,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>118</v>
       </c>
@@ -6601,7 +6603,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36892</v>
       </c>
@@ -6625,7 +6627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6643,7 +6645,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>36923</v>
@@ -6664,7 +6666,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A125" si="4">EDATE(A110,1)</f>
         <v>36951</v>
@@ -6689,7 +6691,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -6707,7 +6709,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>36982</v>
@@ -6732,7 +6734,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -6750,7 +6752,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37012</v>
@@ -6771,7 +6773,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -6792,7 +6794,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -6817,7 +6819,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6835,7 +6837,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37104</v>
@@ -6860,7 +6862,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -6878,7 +6880,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37135</v>
@@ -6903,7 +6905,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>125</v>
@@ -6923,7 +6925,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -6941,7 +6943,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>37165</v>
@@ -6962,7 +6964,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -6987,7 +6989,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>45</v>
@@ -7009,7 +7011,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>77</v>
@@ -7031,7 +7033,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -7049,7 +7051,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f>EDATE(A125,1)</f>
         <v>37226</v>
@@ -7074,7 +7076,7 @@
         <v>37207</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -7092,7 +7094,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>130</v>
       </c>
@@ -7110,7 +7112,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37257</v>
       </c>
@@ -7134,7 +7136,7 @@
         <v>37288</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -7156,7 +7158,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>48</v>
@@ -7178,7 +7180,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -7196,7 +7198,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A132,1)</f>
         <v>37288</v>
@@ -7217,7 +7219,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A155" si="5">EDATE(A136,1)</f>
         <v>37316</v>
@@ -7242,7 +7244,7 @@
         <v>37440</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>48</v>
@@ -7264,7 +7266,7 @@
         <v>37563</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -7286,7 +7288,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>125</v>
@@ -7306,7 +7308,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -7324,7 +7326,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A137,1)</f>
         <v>37347</v>
@@ -7345,7 +7347,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -7366,7 +7368,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -7387,7 +7389,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -7408,7 +7410,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -7433,7 +7435,7 @@
         <v>37598</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7451,7 +7453,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37500</v>
@@ -7476,7 +7478,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -7498,7 +7500,7 @@
         <v>37416</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -7518,7 +7520,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -7536,7 +7538,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f>EDATE(A148,1)</f>
         <v>37530</v>
@@ -7561,7 +7563,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
@@ -7579,7 +7581,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37561</v>
@@ -7600,7 +7602,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -7625,7 +7627,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13">
@@ -7643,7 +7645,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>137</v>
       </c>
@@ -7661,7 +7663,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37622</v>
       </c>
@@ -7685,7 +7687,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -7703,7 +7705,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>37653</v>
@@ -7724,7 +7726,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" ref="A161:A174" si="6">EDATE(A160,1)</f>
         <v>37681</v>
@@ -7745,7 +7747,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -7766,7 +7768,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -7791,7 +7793,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>112</v>
@@ -7811,7 +7813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -7829,7 +7831,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A163,1)</f>
         <v>37773</v>
@@ -7854,7 +7856,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -7872,7 +7874,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>37803</v>
@@ -7893,7 +7895,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -7916,7 +7918,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -7934,7 +7936,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>37865</v>
@@ -7955,7 +7957,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -7976,7 +7978,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -7997,7 +7999,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -8018,7 +8020,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
         <v>143</v>
       </c>
@@ -8036,7 +8038,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37987</v>
       </c>
@@ -8060,7 +8062,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A176,1)</f>
         <v>38018</v>
@@ -8085,7 +8087,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" ref="A178:A185" si="7">EDATE(A177,1)</f>
         <v>38047</v>
@@ -8110,7 +8112,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>147</v>
@@ -8132,7 +8134,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>38078</v>
@@ -8157,7 +8159,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -8182,7 +8184,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -8207,7 +8209,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -8232,7 +8234,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -8257,7 +8259,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -8280,7 +8282,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>152</v>
@@ -8302,7 +8304,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>38261</v>
@@ -8327,7 +8329,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>155</v>
@@ -8349,7 +8351,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>157</v>
@@ -8371,7 +8373,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A187,1)</f>
         <v>38292</v>
@@ -8394,7 +8396,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>159</v>
@@ -8416,7 +8418,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>38322</v>
@@ -8441,7 +8443,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -8459,7 +8461,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="48" t="s">
         <v>161</v>
       </c>
@@ -8477,7 +8479,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38353</v>
       </c>
@@ -8499,7 +8501,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>163</v>
@@ -8521,7 +8523,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="41">
         <f>EDATE(A195,1)</f>
         <v>38384</v>
@@ -8546,7 +8548,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>165</v>
@@ -8568,7 +8570,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
         <f>EDATE(A197,1)</f>
         <v>38412</v>
@@ -8593,7 +8595,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="41">
         <f t="shared" ref="A200:A213" si="8">EDATE(A199,1)</f>
         <v>38443</v>
@@ -8618,7 +8620,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="41">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -8643,7 +8645,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="41">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -8668,7 +8670,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="41">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -8693,7 +8695,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>45</v>
@@ -8715,7 +8717,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>169</v>
@@ -8737,7 +8739,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41">
         <f>EDATE(A203,1)</f>
         <v>38565</v>
@@ -8762,7 +8764,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="41">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -8787,7 +8789,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>112</v>
@@ -8807,7 +8809,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -8825,7 +8827,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>175</v>
@@ -8845,7 +8847,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="41">
         <f>EDATE(A207,1)</f>
         <v>38626</v>
@@ -8870,7 +8872,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="41">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -8895,7 +8897,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="41">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -8920,7 +8922,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>180</v>
@@ -8942,7 +8944,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>181</v>
@@ -8962,7 +8964,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="48" t="s">
         <v>182</v>
       </c>
@@ -8980,7 +8982,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38718</v>
       </c>
@@ -9004,7 +9006,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -9026,7 +9028,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>38749</v>
@@ -9051,7 +9053,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A240" si="9">EDATE(A219,1)</f>
         <v>38777</v>
@@ -9076,7 +9078,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>187</v>
@@ -9098,7 +9100,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>189</v>
@@ -9120,7 +9122,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>38808</v>
@@ -9145,7 +9147,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>178</v>
@@ -9167,7 +9169,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>192</v>
@@ -9189,7 +9191,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A223,1)</f>
         <v>38838</v>
@@ -9214,7 +9216,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -9239,7 +9241,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -9264,7 +9266,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>196</v>
@@ -9286,7 +9288,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>38930</v>
@@ -9309,7 +9311,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -9331,7 +9333,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>48</v>
@@ -9353,7 +9355,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>48</v>
@@ -9375,7 +9377,7 @@
         <v>38725</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -9397,7 +9399,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>48</v>
@@ -9419,7 +9421,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9439,7 +9441,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>203</v>
@@ -9461,7 +9463,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f>EDATE(A230,1)</f>
         <v>38961</v>
@@ -9486,7 +9488,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -9511,7 +9513,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -9536,7 +9538,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>207</v>
@@ -9558,7 +9560,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>39052</v>
@@ -9583,7 +9585,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="48" t="s">
         <v>209</v>
       </c>
@@ -9601,7 +9603,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39083</v>
       </c>
@@ -9621,7 +9623,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A244,1)</f>
         <v>39114</v>
@@ -9642,7 +9644,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A261" si="10">EDATE(A245,1)</f>
         <v>39142</v>
@@ -9663,7 +9665,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="10"/>
         <v>39173</v>
@@ -9684,7 +9686,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -9705,7 +9707,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -9726,7 +9728,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -9749,7 +9751,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>48</v>
@@ -9771,7 +9773,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>48</v>
@@ -9793,7 +9795,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13">
@@ -9811,7 +9813,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A250,1)</f>
         <v>39295</v>
@@ -9836,7 +9838,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -9854,7 +9856,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>39326</v>
@@ -9879,7 +9881,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>178</v>
@@ -9901,7 +9903,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>53</v>
@@ -9921,7 +9923,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9939,7 +9941,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39356</v>
@@ -9964,7 +9966,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -9987,7 +9989,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>180</v>
@@ -10009,7 +10011,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>219</v>
@@ -10031,7 +10033,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>39417</v>
@@ -10056,7 +10058,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="48" t="s">
         <v>221</v>
       </c>
@@ -10074,7 +10076,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -10098,7 +10100,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A266,1)</f>
         <v>39479</v>
@@ -10123,7 +10125,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" ref="A268:A281" si="11">EDATE(A267,1)</f>
         <v>39508</v>
@@ -10148,7 +10150,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>226</v>
@@ -10170,7 +10172,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39539</v>
@@ -10195,7 +10197,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>228</v>
@@ -10217,7 +10219,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>39569</v>
@@ -10242,7 +10244,7 @@
       <c r="J272" s="12"/>
       <c r="K272" s="15"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -10267,7 +10269,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -10292,7 +10294,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>53</v>
@@ -10312,7 +10314,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>232</v>
@@ -10334,7 +10336,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>39661</v>
@@ -10359,7 +10361,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -10382,7 +10384,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>235</v>
@@ -10404,7 +10406,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>39722</v>
@@ -10429,7 +10431,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -10452,7 +10454,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>178</v>
@@ -10474,7 +10476,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>240</v>
@@ -10496,7 +10498,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>39783</v>
@@ -10517,7 +10519,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="48" t="s">
         <v>222</v>
       </c>
@@ -10535,7 +10537,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39814</v>
       </c>
@@ -10559,7 +10561,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>155</v>
@@ -10579,7 +10581,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>180</v>
@@ -10601,7 +10603,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>53</v>
@@ -10621,7 +10623,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10643,7 +10645,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -10665,7 +10667,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10685,7 +10687,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>48</v>
@@ -10707,7 +10709,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>248</v>
@@ -10729,7 +10731,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="41">
         <f>EDATE(A286,1)</f>
         <v>39845</v>
@@ -10754,7 +10756,7 @@
       <c r="J295" s="12"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="41">
         <f t="shared" ref="A296:A310" si="12">EDATE(A295,1)</f>
         <v>39873</v>
@@ -10779,7 +10781,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>187</v>
@@ -10801,7 +10803,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>252</v>
@@ -10823,7 +10825,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="41">
         <f>EDATE(A296,1)</f>
         <v>39904</v>
@@ -10848,7 +10850,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="41">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -10873,7 +10875,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -10895,7 +10897,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="41">
         <f>EDATE(A300,1)</f>
         <v>39965</v>
@@ -10920,7 +10922,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="41">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -10945,7 +10947,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="41">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -10970,7 +10972,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="41">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -10995,7 +10997,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>53</v>
@@ -11015,7 +11017,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>187</v>
@@ -11037,7 +11039,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>261</v>
@@ -11059,7 +11061,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="41">
         <f>EDATE(A305,1)</f>
         <v>40087</v>
@@ -11082,7 +11084,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="41">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -11107,7 +11109,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>264</v>
@@ -11129,7 +11131,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="41">
         <f>EDATE(A310,1)</f>
         <v>40148</v>
@@ -11154,7 +11156,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="52" t="s">
         <v>266</v>
       </c>
@@ -11172,7 +11174,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="41">
         <v>40179</v>
       </c>
@@ -11196,7 +11198,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A314,1)</f>
         <v>40210</v>
@@ -11221,7 +11223,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A330" si="13">EDATE(A315,1)</f>
         <v>40238</v>
@@ -11246,7 +11248,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>270</v>
@@ -11268,7 +11270,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>40269</v>
@@ -11293,7 +11295,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -11318,7 +11320,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -11343,7 +11345,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>270</v>
@@ -11365,7 +11367,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40360</v>
@@ -11390,7 +11392,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -11415,7 +11417,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>275</v>
@@ -11437,7 +11439,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40422</v>
@@ -11460,7 +11462,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>178</v>
@@ -11482,7 +11484,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>53</v>
@@ -11502,7 +11504,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>279</v>
@@ -11524,7 +11526,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>40452</v>
@@ -11549,7 +11551,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -11574,7 +11576,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>281</v>
@@ -11596,7 +11598,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>40513</v>
@@ -11621,7 +11623,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>283</v>
       </c>
@@ -11639,7 +11641,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>40544</v>
       </c>
@@ -11663,7 +11665,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>45</v>
@@ -11685,7 +11687,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -11703,7 +11705,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A334,1)</f>
         <v>40575</v>
@@ -11728,7 +11730,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -11746,7 +11748,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>40603</v>
@@ -11771,7 +11773,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -11789,7 +11791,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>40634</v>
@@ -11814,7 +11816,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>48</v>
@@ -11836,7 +11838,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>48</v>
@@ -11858,7 +11860,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>53</v>
@@ -11878,7 +11880,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -11896,7 +11898,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A341,1)</f>
         <v>40664</v>
@@ -11921,7 +11923,7 @@
         <v>40579</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>155</v>
@@ -11943,7 +11945,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13">
@@ -11961,7 +11963,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f>EDATE(A346,1)</f>
         <v>40695</v>
@@ -11982,7 +11984,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" ref="A350:A352" si="14">EDATE(A349,1)</f>
         <v>40725</v>
@@ -12003,7 +12005,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -12024,7 +12026,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -12049,7 +12051,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>178</v>
@@ -12071,7 +12073,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -12091,7 +12093,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>53</v>
@@ -12111,7 +12113,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>45</v>
@@ -12133,7 +12135,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13">
@@ -12151,7 +12153,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A352,1)</f>
         <v>40817</v>
@@ -12176,7 +12178,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13">
@@ -12194,7 +12196,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>40848</v>
@@ -12215,7 +12217,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A360,1)</f>
         <v>40878</v>
@@ -12240,7 +12242,7 @@
         <v>40555</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>180</v>
@@ -12262,7 +12264,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>297</v>
@@ -12280,7 +12282,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>48</v>
@@ -12302,7 +12304,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>48</v>
@@ -12324,7 +12326,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="41"/>
       <c r="B366" s="15"/>
       <c r="C366" s="13">
@@ -12342,7 +12344,7 @@
       <c r="J366" s="12"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="48" t="s">
         <v>300</v>
       </c>
@@ -12360,7 +12362,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40909</v>
       </c>
@@ -12384,7 +12386,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>48</v>
@@ -12406,7 +12408,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>53</v>
@@ -12426,7 +12428,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>53</v>
@@ -12446,7 +12448,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -12464,7 +12466,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f>EDATE(A368,1)</f>
         <v>40940</v>
@@ -12489,7 +12491,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13">
@@ -12507,7 +12509,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f>EDATE(A373,1)</f>
         <v>40969</v>
@@ -12532,7 +12534,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>178</v>
@@ -12554,7 +12556,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13">
@@ -12572,7 +12574,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f>EDATE(A375,1)</f>
         <v>41000</v>
@@ -12597,7 +12599,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13">
@@ -12615,7 +12617,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A378,1)</f>
         <v>41030</v>
@@ -12640,7 +12642,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>60</v>
@@ -12662,7 +12664,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>48</v>
@@ -12684,7 +12686,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>48</v>
@@ -12706,7 +12708,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13">
@@ -12724,7 +12726,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f>EDATE(A380,1)</f>
         <v>41061</v>
@@ -12747,7 +12749,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>180</v>
@@ -12769,7 +12771,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>53</v>
@@ -12789,7 +12791,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -12807,7 +12809,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A385,1)</f>
         <v>41091</v>
@@ -12828,7 +12830,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" ref="A390:A392" si="15">EDATE(A389,1)</f>
         <v>41122</v>
@@ -12849,7 +12851,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -12870,7 +12872,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -12895,7 +12897,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>48</v>
@@ -12917,7 +12919,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13">
@@ -12935,7 +12937,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41214</v>
@@ -12960,7 +12962,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13">
@@ -12978,7 +12980,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41244</v>
@@ -13003,7 +13005,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -13021,7 +13023,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="48" t="s">
         <v>318</v>
       </c>
@@ -13039,7 +13041,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="41">
         <v>41275</v>
       </c>
@@ -13063,7 +13065,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="42">
@@ -13081,7 +13083,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41306</v>
@@ -13102,7 +13104,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A425" si="16">EDATE(A402,1)</f>
         <v>41334</v>
@@ -13127,7 +13129,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>48</v>
@@ -13149,7 +13151,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -13171,7 +13173,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>48</v>
@@ -13193,7 +13195,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A403,1)</f>
         <v>41365</v>
@@ -13216,7 +13218,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>45</v>
@@ -13236,7 +13238,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="42">
@@ -13254,7 +13256,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A407,1)</f>
         <v>41395</v>
@@ -13279,7 +13281,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="42">
@@ -13297,7 +13299,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>41426</v>
@@ -13322,7 +13324,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="42">
@@ -13340,7 +13342,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>41456</v>
@@ -13365,7 +13367,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="42">
@@ -13383,7 +13385,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>41487</v>
@@ -13404,7 +13406,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -13429,7 +13431,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>178</v>
@@ -13451,7 +13453,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>112</v>
@@ -13471,7 +13473,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -13491,7 +13493,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="42">
@@ -13509,7 +13511,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f>EDATE(A417,1)</f>
         <v>41548</v>
@@ -13534,7 +13536,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="42">
@@ -13552,7 +13554,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <f>EDATE(A422,1)</f>
         <v>41579</v>
@@ -13573,7 +13575,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -13598,7 +13600,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>187</v>
@@ -13620,7 +13622,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="48" t="s">
         <v>330</v>
       </c>
@@ -13638,7 +13640,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>41640</v>
       </c>
@@ -13662,7 +13664,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>187</v>
@@ -13682,7 +13684,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>45</v>
@@ -13704,7 +13706,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -13722,7 +13724,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f>EDATE(A428,1)</f>
         <v>41671</v>
@@ -13743,7 +13745,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" ref="A433:A447" si="17">EDATE(A432,1)</f>
         <v>41699</v>
@@ -13768,7 +13770,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -13786,7 +13788,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f>EDATE(A433,1)</f>
         <v>41730</v>
@@ -13807,7 +13809,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -13830,7 +13832,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>48</v>
@@ -13852,7 +13854,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>112</v>
@@ -13872,7 +13874,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>45</v>
@@ -13894,7 +13896,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>337</v>
@@ -13916,7 +13918,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>41791</v>
@@ -13941,7 +13943,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13">
@@ -13959,7 +13961,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f>EDATE(A441,1)</f>
         <v>41821</v>
@@ -13984,7 +13986,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -14009,7 +14011,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>341</v>
@@ -14031,7 +14033,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f>EDATE(A444,1)</f>
         <v>41883</v>
@@ -14056,7 +14058,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -14081,7 +14083,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>187</v>
@@ -14103,7 +14105,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>344</v>
@@ -14125,7 +14127,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>41944</v>
@@ -14150,7 +14152,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>48</v>
@@ -14172,7 +14174,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>347</v>
@@ -14194,7 +14196,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>41974</v>
@@ -14219,7 +14221,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="48" t="s">
         <v>349</v>
       </c>
@@ -14237,7 +14239,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42005</v>
       </c>
@@ -14261,7 +14263,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>350</v>
@@ -14283,7 +14285,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A455,1)</f>
         <v>42036</v>
@@ -14308,7 +14310,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" ref="A458:A475" si="18">EDATE(A457,1)</f>
         <v>42064</v>
@@ -14329,7 +14331,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -14354,7 +14356,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>48</v>
@@ -14376,7 +14378,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>353</v>
@@ -14398,7 +14400,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f>EDATE(A459,1)</f>
         <v>42125</v>
@@ -14423,7 +14425,7 @@
         <v>42129</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>112</v>
@@ -14443,7 +14445,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>155</v>
@@ -14465,7 +14467,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>45</v>
@@ -14487,7 +14489,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>48</v>
@@ -14509,7 +14511,7 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>357</v>
@@ -14529,7 +14531,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EDATE(A462,1)</f>
         <v>42156</v>
@@ -14554,7 +14556,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -14579,7 +14581,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -14604,7 +14606,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -14626,7 +14628,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>42248</v>
@@ -14651,7 +14653,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>363</v>
@@ -14673,7 +14675,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>42278</v>
@@ -14698,7 +14700,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -14723,7 +14725,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>53</v>
@@ -14743,7 +14745,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>77</v>
@@ -14765,7 +14767,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -14787,7 +14789,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -14809,7 +14811,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>369</v>
@@ -14831,7 +14833,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f>EDATE(A475,1)</f>
         <v>42339</v>
@@ -14856,7 +14858,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="48" t="s">
         <v>371</v>
       </c>
@@ -14874,7 +14876,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>42370</v>
       </c>
@@ -14898,7 +14900,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>125</v>
@@ -14918,7 +14920,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>68</v>
@@ -14938,7 +14940,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13">
@@ -14956,7 +14958,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f>EDATE(A483,1)</f>
         <v>42401</v>
@@ -14977,7 +14979,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f t="shared" ref="A488:A501" si="19">EDATE(A487,1)</f>
         <v>42430</v>
@@ -14998,7 +15000,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -15019,7 +15021,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -15040,7 +15042,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -15061,7 +15063,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -15082,7 +15084,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -15107,7 +15109,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>48</v>
@@ -15129,7 +15131,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>155</v>
@@ -15151,7 +15153,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13">
@@ -15169,7 +15171,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <f>EDATE(A493,1)</f>
         <v>42614</v>
@@ -15190,7 +15192,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -15215,7 +15217,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -15233,7 +15235,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>42675</v>
@@ -15254,7 +15256,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -15279,7 +15281,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -15297,7 +15299,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="52" t="s">
         <v>378</v>
       </c>
@@ -15315,7 +15317,7 @@
       <c r="J503" s="12"/>
       <c r="K503" s="15"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42736</v>
       </c>
@@ -15337,7 +15339,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>60</v>
@@ -15359,7 +15361,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>48</v>
@@ -15381,7 +15383,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>48</v>
@@ -15401,7 +15403,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13">
@@ -15419,7 +15421,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f>EDATE(A504,1)</f>
         <v>42767</v>
@@ -15440,7 +15442,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" ref="A510:A513" si="20">EDATE(A509,1)</f>
         <v>42795</v>
@@ -15465,7 +15467,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13">
@@ -15483,7 +15485,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f>EDATE(A510,1)</f>
         <v>42826</v>
@@ -15504,7 +15506,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -15529,7 +15531,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>57</v>
@@ -15551,7 +15553,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>57</v>
@@ -15573,7 +15575,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15595,7 +15597,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13">
@@ -15613,7 +15615,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A513,1)</f>
         <v>42887</v>
@@ -15638,7 +15640,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -15660,7 +15662,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -15678,7 +15680,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>42917</v>
@@ -15703,7 +15705,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>45</v>
@@ -15725,7 +15727,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>48</v>
@@ -15747,7 +15749,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13">
@@ -15765,7 +15767,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f>EDATE(A521,1)</f>
         <v>42948</v>
@@ -15786,7 +15788,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f>EDATE(A525,1)</f>
         <v>42979</v>
@@ -15811,7 +15813,7 @@
         <v>42834</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>48</v>
@@ -15833,7 +15835,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>48</v>
@@ -15855,7 +15857,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>77</v>
@@ -15877,7 +15879,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>48</v>
@@ -15899,7 +15901,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13">
@@ -15917,7 +15919,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f>EDATE(A526,1)</f>
         <v>43009</v>
@@ -15938,7 +15940,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <f>EDATE(A532,1)</f>
         <v>43040</v>
@@ -15963,7 +15965,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13">
@@ -15981,7 +15983,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f>EDATE(A533,1)</f>
         <v>43070</v>
@@ -16006,7 +16008,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="48" t="s">
         <v>390</v>
       </c>
@@ -16024,7 +16026,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>43101</v>
       </c>
@@ -16046,7 +16048,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13">
@@ -16064,7 +16066,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <f>EDATE(A537,1)</f>
         <v>43132</v>
@@ -16089,7 +16091,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13">
@@ -16107,7 +16109,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f>EDATE(A539,1)</f>
         <v>43160</v>
@@ -16128,7 +16130,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f t="shared" ref="A542:A555" si="21">EDATE(A541,1)</f>
         <v>43191</v>
@@ -16153,7 +16155,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>48</v>
@@ -16175,7 +16177,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13">
@@ -16193,7 +16195,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f>EDATE(A542,1)</f>
         <v>43221</v>
@@ -16218,7 +16220,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -16241,7 +16243,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>48</v>
@@ -16263,7 +16265,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>48</v>
@@ -16285,7 +16287,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>398</v>
@@ -16307,7 +16309,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f>EDATE(A546,1)</f>
         <v>43282</v>
@@ -16332,7 +16334,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>53</v>
@@ -16354,7 +16356,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>401</v>
@@ -16376,7 +16378,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f>EDATE(A550,1)</f>
         <v>43313</v>
@@ -16401,7 +16403,7 @@
       <c r="J553" s="12"/>
       <c r="K553" s="15"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -16426,7 +16428,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -16451,7 +16453,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>68</v>
@@ -16473,7 +16475,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13">
@@ -16491,7 +16493,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <f>EDATE(A555,1)</f>
         <v>43405</v>
@@ -16512,7 +16514,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <f>EDATE(A558,1)</f>
         <v>43435</v>
@@ -16537,7 +16539,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13">
@@ -16555,7 +16557,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="48" t="s">
         <v>407</v>
       </c>
@@ -16573,7 +16575,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>43466</v>
       </c>
@@ -16597,7 +16599,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>48</v>
@@ -16619,7 +16621,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>45</v>
@@ -16641,7 +16643,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13">
@@ -16659,7 +16661,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f>EDATE(A562,1)</f>
         <v>43497</v>
@@ -16680,7 +16682,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f t="shared" ref="A567:A582" si="22">EDATE(A566,1)</f>
         <v>43525</v>
@@ -16701,7 +16703,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <f t="shared" si="22"/>
         <v>43556</v>
@@ -16728,7 +16730,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -16749,7 +16751,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -16774,7 +16776,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13">
@@ -16792,7 +16794,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <f>EDATE(A570,1)</f>
         <v>43647</v>
@@ -16813,7 +16815,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <f t="shared" si="22"/>
         <v>43678</v>
@@ -16838,7 +16840,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>48</v>
@@ -16860,7 +16862,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13">
@@ -16878,7 +16880,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>43709</v>
@@ -16903,7 +16905,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>112</v>
@@ -16923,7 +16925,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -16945,7 +16947,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -16963,7 +16965,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <f>EDATE(A576,1)</f>
         <v>43739</v>
@@ -16984,7 +16986,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -17005,7 +17007,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <f t="shared" si="22"/>
         <v>43800</v>
@@ -17030,7 +17032,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>57</v>
@@ -17052,7 +17054,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13">
@@ -17070,7 +17072,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="48" t="s">
         <v>416</v>
       </c>
@@ -17088,7 +17090,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>43831</v>
       </c>
@@ -17112,7 +17114,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>417</v>
@@ -17132,7 +17134,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13">
@@ -17150,7 +17152,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>43862</v>
@@ -17171,7 +17173,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <f t="shared" ref="A590:A600" si="23">EDATE(A589,1)</f>
         <v>43891</v>
@@ -17192,7 +17194,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -17213,7 +17215,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -17234,7 +17236,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -17255,7 +17257,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -17276,7 +17278,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <f t="shared" si="23"/>
         <v>44044</v>
@@ -17297,7 +17299,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -17318,7 +17320,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -17341,7 +17343,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13">
@@ -17359,7 +17361,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <f>EDATE(A597,1)</f>
         <v>44136</v>
@@ -17380,7 +17382,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <f t="shared" si="23"/>
         <v>44166</v>
@@ -17403,7 +17405,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>421</v>
@@ -17425,7 +17427,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13">
@@ -17443,7 +17445,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="48" t="s">
         <v>423</v>
       </c>
@@ -17461,7 +17463,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44197</v>
       </c>
@@ -17481,7 +17483,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <f>EDATE(A604,1)</f>
         <v>44228</v>
@@ -17502,7 +17504,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <f t="shared" ref="A606:A617" si="24">EDATE(A605,1)</f>
         <v>44256</v>
@@ -17522,7 +17524,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13">
@@ -17540,7 +17542,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>44287</v>
@@ -17561,7 +17563,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -17582,7 +17584,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -17605,7 +17607,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -17627,7 +17629,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13">
@@ -17645,7 +17647,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <f>EDATE(A610,1)</f>
         <v>44378</v>
@@ -17666,7 +17668,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -17687,7 +17689,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -17708,7 +17710,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <f t="shared" si="24"/>
         <v>44470</v>
@@ -17729,7 +17731,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -17754,7 +17756,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>77</v>
@@ -17776,7 +17778,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -17794,7 +17796,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <f>EDATE(A617,1)</f>
         <v>44531</v>
@@ -17815,7 +17817,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="48" t="s">
         <v>428</v>
       </c>
@@ -17833,7 +17835,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>44562</v>
       </c>
@@ -17853,7 +17855,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <f>EDATE(A622,1)</f>
         <v>44593</v>
@@ -17874,7 +17876,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <f t="shared" ref="A624:A638" si="25">EDATE(A623,1)</f>
         <v>44621</v>
@@ -17897,7 +17899,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>462</v>
@@ -17919,7 +17921,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>44652</v>
@@ -17940,7 +17942,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -17967,7 +17969,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>48</v>
@@ -17989,7 +17991,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>53</v>
@@ -18009,7 +18011,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>458</v>
@@ -18031,7 +18033,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>461</v>
@@ -18051,7 +18053,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="49"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <f>EDATE(A627,1)</f>
         <v>44713</v>
@@ -18078,7 +18080,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>460</v>
@@ -18098,7 +18100,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="49"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <f>EDATE(A632,1)</f>
         <v>44743</v>
@@ -18123,7 +18125,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <f t="shared" si="25"/>
         <v>44774</v>
@@ -18148,7 +18150,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>456</v>
@@ -18170,7 +18172,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <f>EDATE(A635,1)</f>
         <v>44805</v>
@@ -18195,7 +18197,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <f t="shared" si="25"/>
         <v>44835</v>
@@ -18220,7 +18222,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
         <v>434</v>
@@ -18244,7 +18246,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>434</v>
@@ -18266,7 +18268,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>454</v>
@@ -18286,7 +18288,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="49"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>44866</v>
       </c>
@@ -18310,7 +18312,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>44896</v>
       </c>
@@ -18336,7 +18338,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>452</v>
@@ -18356,7 +18358,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="48" t="s">
         <v>433</v>
       </c>
@@ -18374,7 +18376,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44927</v>
       </c>
@@ -18400,7 +18402,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>437</v>
@@ -18422,7 +18424,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>434</v>
@@ -18444,7 +18446,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>44958</v>
       </c>
@@ -18468,7 +18470,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>44986</v>
       </c>
@@ -18488,7 +18490,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>45017</v>
       </c>
@@ -18508,7 +18510,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>45047</v>
       </c>
@@ -18534,7 +18536,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="15" t="s">
         <v>441</v>
@@ -18556,7 +18558,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="15" t="s">
         <v>441</v>
@@ -18578,7 +18580,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="15" t="s">
         <v>444</v>
@@ -18600,7 +18602,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="15" t="s">
         <v>437</v>
@@ -18622,7 +18624,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>45078</v>
       </c>
@@ -18648,7 +18650,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>437</v>
@@ -18670,7 +18672,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>434</v>
@@ -18692,7 +18694,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>45108</v>
       </c>
@@ -18718,7 +18720,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>45139</v>
       </c>
@@ -18744,7 +18746,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>45170</v>
       </c>
@@ -18770,7 +18772,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>45200</v>
       </c>
@@ -18796,7 +18798,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20" t="s">
         <v>437</v>
@@ -18818,7 +18820,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>45231</v>
       </c>
@@ -18844,7 +18846,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
         <v>464</v>
@@ -18866,7 +18868,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>464</v>
@@ -18888,7 +18890,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>45261</v>
       </c>
@@ -18908,7 +18910,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="48" t="s">
         <v>467</v>
       </c>
@@ -18926,20 +18928,22 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>45322</v>
       </c>
       <c r="B670" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="C670" s="13"/>
+      <c r="C670" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D670" s="39"/>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G670" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H670" s="39">
         <v>1</v>
@@ -18950,11 +18954,11 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A671" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B671" s="20"/>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A671" s="40"/>
+      <c r="B671" s="20" t="s">
+        <v>437</v>
+      </c>
       <c r="C671" s="13"/>
       <c r="D671" s="39"/>
       <c r="E671" s="9"/>
@@ -18963,14 +18967,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H671" s="39"/>
+      <c r="H671" s="39">
+        <v>2</v>
+      </c>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
-      <c r="K671" s="20"/>
-    </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K671" s="49" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18986,9 +18994,9 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19004,9 +19012,9 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19022,9 +19030,9 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19040,9 +19048,9 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19058,9 +19066,9 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19076,9 +19084,9 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19094,9 +19102,9 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19112,9 +19120,9 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19130,9 +19138,9 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19148,9 +19156,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19166,9 +19174,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19184,9 +19192,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19202,9 +19210,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19220,9 +19228,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19238,9 +19246,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19256,9 +19264,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19274,9 +19282,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19292,9 +19300,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19310,9 +19318,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19328,9 +19336,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19346,9 +19354,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19364,9 +19372,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19382,9 +19390,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19400,9 +19408,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19418,9 +19426,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19436,9 +19444,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19454,9 +19462,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19472,9 +19480,9 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19490,9 +19498,9 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19508,9 +19516,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19526,9 +19534,9 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19544,9 +19552,9 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19562,9 +19570,9 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19580,9 +19588,9 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19598,9 +19606,9 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19616,9 +19624,9 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19634,9 +19642,9 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19652,9 +19660,9 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19670,9 +19678,9 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>46568</v>
+        <v>46538</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19688,9 +19696,9 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19706,9 +19714,9 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>46630</v>
+        <v>46599</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19724,9 +19732,9 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>46660</v>
+        <v>46630</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19742,9 +19750,9 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>46691</v>
+        <v>46660</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19760,9 +19768,9 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>46721</v>
+        <v>46691</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19778,9 +19786,9 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>46752</v>
+        <v>46721</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19796,9 +19804,9 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>46783</v>
+        <v>46752</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19814,9 +19822,9 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>46812</v>
+        <v>46783</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19832,9 +19840,9 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>46843</v>
+        <v>46812</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19850,9 +19858,9 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>46873</v>
+        <v>46843</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19868,9 +19876,9 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>46904</v>
+        <v>46873</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19886,9 +19894,9 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>46934</v>
+        <v>46904</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19904,9 +19912,9 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>46965</v>
+        <v>46934</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19922,9 +19930,9 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>46996</v>
+        <v>46965</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19940,9 +19948,9 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>47026</v>
+        <v>46996</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19958,9 +19966,9 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>47057</v>
+        <v>47026</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19976,9 +19984,9 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47087</v>
+        <v>47057</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19994,9 +20002,9 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47118</v>
+        <v>47087</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -20012,9 +20020,9 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47149</v>
+        <v>47118</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -20030,9 +20038,9 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47177</v>
+        <v>47149</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -20048,9 +20056,9 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47208</v>
+        <v>47177</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20066,9 +20074,9 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47238</v>
+        <v>47208</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20084,9 +20092,9 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47269</v>
+        <v>47238</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20102,9 +20110,9 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47299</v>
+        <v>47269</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -20120,9 +20128,9 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>47330</v>
+        <v>47299</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -20138,9 +20146,9 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>47361</v>
+        <v>47330</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -20156,9 +20164,9 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47391</v>
+        <v>47361</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -20174,9 +20182,9 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47422</v>
+        <v>47391</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -20192,9 +20200,9 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47452</v>
+        <v>47422</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -20210,9 +20218,9 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47483</v>
+        <v>47452</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -20228,9 +20236,9 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>47514</v>
+        <v>47483</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -20246,9 +20254,9 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>47542</v>
+        <v>47514</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -20264,9 +20272,9 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>47573</v>
+        <v>47542</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -20282,9 +20290,9 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>47603</v>
+        <v>47573</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -20300,9 +20308,9 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>47634</v>
+        <v>47603</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -20318,9 +20326,9 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>47664</v>
+        <v>47634</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -20336,9 +20344,9 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>47695</v>
+        <v>47664</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -20354,9 +20362,9 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>47726</v>
+        <v>47695</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -20372,9 +20380,9 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>47756</v>
+        <v>47726</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -20390,9 +20398,9 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>47787</v>
+        <v>47756</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -20408,9 +20416,9 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>47817</v>
+        <v>47787</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -20426,9 +20434,9 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>47848</v>
+        <v>47817</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -20444,9 +20452,9 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>47879</v>
+        <v>47848</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -20462,9 +20470,9 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>47907</v>
+        <v>47879</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -20480,9 +20488,9 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>47938</v>
+        <v>47907</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -20498,9 +20506,9 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>47968</v>
+        <v>47938</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -20516,9 +20524,9 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>47999</v>
+        <v>47968</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -20534,9 +20542,9 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>48029</v>
+        <v>47999</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -20552,9 +20560,9 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48060</v>
+        <v>48029</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -20570,9 +20578,9 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48091</v>
+        <v>48060</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -20588,9 +20596,9 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48121</v>
+        <v>48091</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -20606,9 +20614,9 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48152</v>
+        <v>48121</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -20624,9 +20632,9 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48182</v>
+        <v>48152</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -20642,9 +20650,9 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48213</v>
+        <v>48182</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -20660,9 +20668,9 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48244</v>
+        <v>48213</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -20678,9 +20686,9 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>48273</v>
+        <v>48244</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -20696,9 +20704,9 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>48304</v>
+        <v>48273</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -20714,9 +20722,9 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>48334</v>
+        <v>48304</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -20732,9 +20740,9 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>48365</v>
+        <v>48334</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -20750,9 +20758,9 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>48395</v>
+        <v>48365</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -20768,9 +20776,9 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>48426</v>
+        <v>48395</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -20786,9 +20794,9 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>48457</v>
+        <v>48426</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -20804,9 +20812,9 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>48487</v>
+        <v>48457</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -20821,6 +20829,24 @@
       <c r="I774" s="9"/>
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
+    </row>
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A775" s="40">
+        <v>48487</v>
+      </c>
+      <c r="B775" s="20"/>
+      <c r="C775" s="13"/>
+      <c r="D775" s="39"/>
+      <c r="E775" s="9"/>
+      <c r="F775" s="20"/>
+      <c r="G775" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H775" s="39"/>
+      <c r="I775" s="9"/>
+      <c r="J775" s="11"/>
+      <c r="K775" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20837,10 +20863,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20863,7 +20889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20871,21 +20897,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -20898,7 +20924,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20927,7 +20953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -20953,17 +20979,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20984,7 +21010,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21011,7 +21037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21037,7 +21063,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21063,7 +21089,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21089,7 +21115,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21115,7 +21141,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21141,7 +21167,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21167,7 +21193,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21193,7 +21219,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21213,7 +21239,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21233,7 +21259,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21253,7 +21279,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21274,7 +21300,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21295,7 +21321,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21316,7 +21342,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21337,7 +21363,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21358,7 +21384,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21379,7 +21405,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21400,7 +21426,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21421,7 +21447,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21442,7 +21468,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21463,7 +21489,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21484,7 +21510,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21505,7 +21531,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21526,7 +21552,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21547,7 +21573,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21568,7 +21594,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21589,7 +21615,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21610,7 +21636,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21631,7 +21657,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21652,7 +21678,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21673,7 +21699,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21682,7 +21708,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21691,7 +21717,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21700,7 +21726,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21709,7 +21735,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21718,7 +21744,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21727,7 +21753,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21736,7 +21762,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21745,7 +21771,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21754,7 +21780,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21763,7 +21789,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21772,7 +21798,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21781,7 +21807,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21790,7 +21816,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21799,7 +21825,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21808,7 +21834,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21817,7 +21843,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21826,7 +21852,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21835,7 +21861,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21844,7 +21870,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21853,7 +21879,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21862,7 +21888,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21871,7 +21897,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21880,7 +21906,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21889,7 +21915,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21898,7 +21924,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21907,7 +21933,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21916,7 +21942,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21925,7 +21951,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21934,7 +21960,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
